--- a/files/Municipalities_by_Province.xlsx
+++ b/files/Municipalities_by_Province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91345932-0369-4815-9B05-3333EB580A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F5E2F-90D1-4D1D-BE61-38F768D23104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,50 +268,37 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -374,9 +361,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -389,9 +374,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -404,6 +387,90 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -413,26 +480,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,9 +567,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,9 +602,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,9 +654,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -737,332 +847,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6" style="20" customWidth="1"/>
+    <col min="8" max="28" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="2:6" s="20" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F4" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F6" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F10" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F12" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F14" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F16" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F18" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F20" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/Municipalities_by_Province.xlsx
+++ b/files/Municipalities_by_Province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F5E2F-90D1-4D1D-BE61-38F768D23104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91345932-0369-4815-9B05-3333EB580A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,37 +268,50 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -361,7 +374,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -374,7 +389,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -387,90 +404,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -480,35 +413,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -567,9 +491,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,26 +526,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,26 +561,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -847,370 +737,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="112" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6" style="20" customWidth="1"/>
-    <col min="8" max="28" width="9.140625" style="20"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="20" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="17" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="E9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="17" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="E11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="17" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="1" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="17" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="17" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="E15" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="17" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="21" t="s">
+      <c r="D22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E22" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>